--- a/2 ano/1 Semestre/RC1/Projeto/Distribuição de IPs - Projeto - Fase 1.xlsx
+++ b/2 ano/1 Semestre/RC1/Projeto/Distribuição de IPs - Projeto - Fase 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Documents\University\2 ano\1 Semestre\RC1\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61598498-0EA4-4955-BA26-212D0DE674FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A16B44-3CCD-4311-A7E3-850131C2E0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CE19ADB-2A90-4CDB-9CB4-4B784D373762}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CE19ADB-2A90-4CDB-9CB4-4B784D373762}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="128">
   <si>
     <t>Public IPv4</t>
   </si>
@@ -413,16 +413,13 @@
     <t>172.20.23.176 - 172.20.23.179</t>
   </si>
   <si>
-    <t>172.20.23.177</t>
-  </si>
-  <si>
-    <t>172.20.23.178</t>
-  </si>
-  <si>
     <t>2002:a201:bc52:0200::</t>
   </si>
   <si>
     <t>2002:a201:bc52:200:0:0:0:0 - 2002:a201:bc52:200:0:0:0:3</t>
+  </si>
+  <si>
+    <t>172.20.23.177 - 172.20.23.178</t>
   </si>
 </sst>
 </file>
@@ -724,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,103 +735,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA7676A-7E86-46F4-830E-629C2D62D5F2}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,64 +1187,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="4"/>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1272,7 +1266,7 @@
       <c r="H3" s="2">
         <v>126</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="24" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -1286,10 +1280,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1310,7 +1304,7 @@
       <c r="H4" s="2">
         <v>29</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="25" t="s">
         <v>98</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -1324,7 +1318,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1348,7 +1342,7 @@
       <c r="H5" s="2">
         <v>29</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="25" t="s">
         <v>99</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -1362,7 +1356,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1386,7 +1380,7 @@
       <c r="H6" s="2">
         <v>13</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="25" t="s">
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -1400,7 +1394,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1424,7 +1418,7 @@
       <c r="H7" s="2">
         <v>13</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="25" t="s">
         <v>2</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -1438,7 +1432,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1462,7 +1456,7 @@
       <c r="H8" s="2">
         <v>13</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="25" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -1476,7 +1470,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1"/>
@@ -1494,7 +1488,7 @@
       <c r="H9" s="2">
         <v>4</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="25" t="s">
         <v>4</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -1508,7 +1502,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1529,10 +1523,10 @@
       <c r="G10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="13">
         <v>1</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="25" t="s">
         <v>5</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -1546,15 +1540,15 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="K11" s="31" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="K11" s="25" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -1568,60 +1562,60 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="26" t="s">
         <v>120</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N12" s="15" t="s">
-        <v>128</v>
+      <c r="N12" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1645,10 +1639,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1663,7 +1657,7 @@
       <c r="F17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="20" t="s">
         <v>75</v>
       </c>
       <c r="H17" s="2">
@@ -1671,7 +1665,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1697,7 +1691,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1723,7 +1717,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1749,7 +1743,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1775,33 +1769,31 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="33" t="s">
+      <c r="E22" s="27"/>
+      <c r="F22" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" s="34">
-        <v>1</v>
+      <c r="G22" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="28">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="3"/>
@@ -1810,7 +1802,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="15"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="26" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
